--- a/biology/Zoologie/Azendohsaurus/Azendohsaurus.xlsx
+++ b/biology/Zoologie/Azendohsaurus/Azendohsaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Azendohsaurus est un genre éteint d'archosauromorphes herbivores, du clade des allokotosauriens, inclus dans une famille (biologie) à laquelle il a donné son nom, les Azendohsauridae[3]. Il a vécu dans ce qui est aujourd'hui le Maroc, où il a été découvert dans des sédiments du Trias supérieur (Carnien), datant d'il y a environ 230 Ma (millions d'années). 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Azendohsaurus est un genre éteint d'archosauromorphes herbivores, du clade des allokotosauriens, inclus dans une famille (biologie) à laquelle il a donné son nom, les Azendohsauridae. Il a vécu dans ce qui est aujourd'hui le Maroc, où il a été découvert dans des sédiments du Trias supérieur (Carnien), datant d'il y a environ 230 Ma (millions d'années). 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom du genre combine le nom d'un village du Maroc, « Azendoh », où il fut découvert pour la première fois, associé au grec ancien « saûros » qui signifie « lézard » pour donner « lézard d'Azendoh ». 
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le crâne d'A. madagaskarensis mesure une dizaine de centimètres de long[2] ; la longueur totale de l'animal est difficile à apprécier, de l'ordre de 1,80 mètre[4]. Il possédait de longues pattes arrière.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le crâne d'A. madagaskarensis mesure une dizaine de centimètres de long ; la longueur totale de l'animal est difficile à apprécier, de l'ordre de 1,80 mètre. Il possédait de longues pattes arrière.
 </t>
         </is>
       </c>
@@ -575,14 +591,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Azendohsaurus laaroussi
-L'espèce type, décrite en 1972 par Jean-Michel Dutuit[1] n'est connue que par un petit fragment de mâchoire avec deux dents. Ce reste fossile très limité a conduit à différentes interprétations erronées qui concluaient qu'Azendohsaurus était un dinosaure, soit ornithischien, soit « prosauropode » (un sauropodomorphe basal)[5],[6].
-Azendohsaurus madagaskarensis
-La description par J. J. Flynn et ses collègues, à partir de 2010, de cette nouvelle espèce[2], basée sur des restes fossiles bien plus complets, découverts au sud-ouest de Madagascar :
-confirme qu'Azendohsaurus n'était pas un dinosaure ;
-qu'il s’agit d'un archosauromorphe basal qui avait développé, indépendamment, des caractéristiques crâniennes et dentaires similaires à celles des dinosaures herbivores[2] ;
-démontre que ce genre avait une large extension géographique, au moins à l'échelle de l'Afrique ;
-montre une proximité phylogénétique avec le genre Trilophosaurus[7], avec qui M. D. Ezcurra le place en groupe frère en 2016 (voir cladogramme ci-dessous)[8].</t>
+          <t>Azendohsaurus laaroussi</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce type, décrite en 1972 par Jean-Michel Dutuit n'est connue que par un petit fragment de mâchoire avec deux dents. Ce reste fossile très limité a conduit à différentes interprétations erronées qui concluaient qu'Azendohsaurus était un dinosaure, soit ornithischien, soit « prosauropode » (un sauropodomorphe basal),.
+</t>
         </is>
       </c>
     </row>
@@ -607,12 +623,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Inventaire des fossiles retrouvés</t>
+          <t>Liste des espèces</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MNHN MTD XVI 1: fragments de mandibule. Huit autres spécimens lui sont référés (maxillaires et dentaires).</t>
+          <t>Azendohsaurus madagaskarensis</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La description par J. J. Flynn et ses collègues, à partir de 2010, de cette nouvelle espèce, basée sur des restes fossiles bien plus complets, découverts au sud-ouest de Madagascar :
+confirme qu'Azendohsaurus n'était pas un dinosaure ;
+qu'il s’agit d'un archosauromorphe basal qui avait développé, indépendamment, des caractéristiques crâniennes et dentaires similaires à celles des dinosaures herbivores ;
+démontre que ce genre avait une large extension géographique, au moins à l'échelle de l'Afrique ;
+montre une proximité phylogénétique avec le genre Trilophosaurus, avec qui M. D. Ezcurra le place en groupe frère en 2016 (voir cladogramme ci-dessous).</t>
         </is>
       </c>
     </row>
@@ -637,14 +663,83 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Inventaire des fossiles retrouvés</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>MNHN MTD XVI 1: fragments de mandibule. Huit autres spécimens lui sont référés (maxillaires et dentaires).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Azendohsaurus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azendohsaurus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La découverte en Inde en 2017 du genre Shringasaurus a confirmé la monophylie et donc la validité de la famille des Azendohsauridae[3]. 
-Cladogramme
-Le cladogramme suivant des archosauriformes a été établi par M. D. Ezcurra en 2016[8]. Il montre la position du genre Azendohsaurus parmi les archosauromorphes :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La découverte en Inde en 2017 du genre Shringasaurus a confirmé la monophylie et donc la validité de la famille des Azendohsauridae. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Azendohsaurus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azendohsaurus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cladogramme</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme suivant des archosauriformes a été établi par M. D. Ezcurra en 2016. Il montre la position du genre Azendohsaurus parmi les archosauromorphes :
 </t>
         </is>
       </c>
